--- a/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -149,7 +149,7 @@
     <t>FON-16</t>
   </si>
   <si>
-    <t>Directeur adjoint de laboratoire</t>
+    <t>Directeur-adjoint de laboratoire</t>
   </si>
   <si>
     <t>FON-17</t>

--- a/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -32,7 +32,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.176</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.176</t>
   </si>
   <si>
     <t>Version</t>

--- a/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T12:00:00+01:00</t>
+    <t>2024-02-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -131,7 +131,7 @@
     <t>FON-07</t>
   </si>
   <si>
-    <t>Gérant après décès</t>
+    <t>Gérant après incapacité ou décès</t>
   </si>
   <si>
     <t>FON-09</t>

--- a/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="192">
   <si>
     <t>Property</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-23T12:00:00+01:00</t>
+    <t>2024-03-29T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -546,6 +546,36 @@
   </si>
   <si>
     <t>Conseiller en génétique</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>Secrétaire médicale</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>Assistant médical</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>Responsable de secteur</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>Biologiste médical ni médecin ni pharmacien</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>Gestionnaire alertes et urgences sanitaires</t>
   </si>
   <si>
     <t>350</t>
@@ -1249,7 +1279,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1525,18 +1555,58 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>107</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="B35" t="s" s="2">
-        <v>181</v>
+      <c r="B40" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -74,7 +74,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="193">
   <si>
     <t>Property</t>
   </si>
@@ -77,6 +77,12 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -336,9 +342,6 @@
   </si>
   <si>
     <t>Fonction non définie</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -724,7 +727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -830,20 +833,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -865,346 +876,346 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1226,50 +1237,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1291,322 +1302,322 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2024-06-28T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -336,6 +336,18 @@
   </si>
   <si>
     <t>Docteur junior</t>
+  </si>
+  <si>
+    <t>FON-58</t>
+  </si>
+  <si>
+    <t>Activité en piscine ou bassin</t>
+  </si>
+  <si>
+    <t>FON-59</t>
+  </si>
+  <si>
+    <t>Gérant d'antenne</t>
   </si>
   <si>
     <t>FON-AU</t>
@@ -864,7 +876,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1204,18 +1216,34 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1245,26 +1273,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -1277,10 +1305,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1310,298 +1338,298 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39">
@@ -1614,10 +1642,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -7,9 +7,9 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from TRE_R21-Fonction" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE_R96-AutreFon" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from TRE_R85-RolePris" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>

--- a/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="199">
   <si>
     <t>Property</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2024-12-13T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>Conseiller en génétique</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>Coordonnateur de parcours</t>
   </si>
   <si>
     <t>331</t>
@@ -1318,7 +1324,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1634,18 +1640,26 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>21</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="B40" t="s" s="2">
-        <v>196</v>
+      <c r="B41" t="s" s="2">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J108-EnsembleFonction-RASS.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
